--- a/karma-js-howto.xlsx
+++ b/karma-js-howto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\sample-karma-test-js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808604BA-AC36-429E-91D6-44EB0522263F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA851D6-3512-44A0-9183-A9F5B2D8CCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3735" windowWidth="15375" windowHeight="7875" tabRatio="771" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="1" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -661,9 +661,6 @@
     <t>describe('Test isSimilar()', function () {
   ...
 });</t>
-  </si>
-  <si>
-    <t>6. Generating coverage and summary of execution</t>
   </si>
   <si>
     <t>npm install --save-dev coverage</t>
@@ -1074,6 +1071,9 @@
   </si>
   <si>
     <t>npm install --save-dev karma-chrome-launcher</t>
+  </si>
+  <si>
+    <t>Generating coverage and summary of execution</t>
   </si>
 </sst>
 </file>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2654A1-97C9-4994-AFAB-B0BA5D559350}">
   <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2597,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC732316-EC1A-4386-A955-03D9EA5A8CC0}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:J21"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2608,7 @@
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -2618,7 +2618,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2644,12 +2644,12 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2813,7 @@
   <sheetData>
     <row r="3" spans="2:16" ht="18.75">
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="18.75">
@@ -2821,7 +2821,7 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.75">
@@ -2845,7 +2845,7 @@
     <row r="9" spans="2:16" ht="18.75">
       <c r="B9" s="3"/>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75">
@@ -2877,10 +2877,10 @@
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25" customHeight="1">
@@ -2888,12 +2888,12 @@
         <v>34</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="15" customHeight="1">
       <c r="C17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -2904,7 +2904,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
       <c r="Q17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="25" spans="2:24">
       <c r="Q25" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="38" spans="2:24" s="11" customFormat="1" ht="18.75">
       <c r="B38" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:24">
@@ -3141,7 +3141,7 @@
     </row>
     <row r="41" spans="2:24">
       <c r="C41" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="72" spans="2:11">
       <c r="C72" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -3788,12 +3788,12 @@
     </row>
     <row r="103" spans="2:14">
       <c r="B103" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="2:14" ht="15" customHeight="1">
       <c r="C104" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -3949,12 +3949,12 @@
     </row>
     <row r="116" spans="3:14">
       <c r="C116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="3:14">
       <c r="C117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4037,17 +4037,17 @@
     </row>
     <row r="19" spans="2:11" ht="15.75">
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="C21" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -4060,17 +4060,17 @@
     </row>
     <row r="25" spans="2:11" ht="15.75">
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="C27" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="30" spans="2:11" ht="15.75">
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -4167,12 +4167,12 @@
     </row>
     <row r="42" spans="2:10" ht="15.75">
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75">
       <c r="B43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -4182,7 +4182,7 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -4195,12 +4195,12 @@
     </row>
     <row r="48" spans="2:10" ht="15.75">
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="15.75">
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4223,7 +4223,7 @@
     </row>
     <row r="54" spans="2:10" ht="15.75">
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -4312,7 +4312,7 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="67" spans="2:11" ht="15.75">
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:11">

--- a/karma-js-howto.xlsx
+++ b/karma-js-howto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Ivy\Github\karma-javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA851D6-3512-44A0-9183-A9F5B2D8CCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE5F2C-A70D-4B33-9EC2-2FB86746F96A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="1" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="771" activeTab="3" xr2:uid="{F8FD7D67-54D6-4F97-86DC-2E3CAB04B120}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation and Configuration" sheetId="1" r:id="rId1"/>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC732316-EC1A-4386-A955-03D9EA5A8CC0}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3977,7 +3977,7 @@
   </sheetPr>
   <dimension ref="B3:K87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B45" sqref="B45:J45"/>
     </sheetView>
   </sheetViews>
